--- a/Sprint3/Sprint3.xlsx
+++ b/Sprint3/Sprint3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kausik\1DSA\DSA301\DSA301-3rd-\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB2BC0-88EE-479A-B35C-2494F587B60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2214F9-5509-4209-BB68-AAFE5F1185D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6192" yWindow="1836" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1836" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Lecture names</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Solve a financial problem</t>
+  </si>
+  <si>
+    <t>List and Queue</t>
+  </si>
+  <si>
+    <t>List and Queue 2</t>
+  </si>
+  <si>
+    <t>Unique Gift</t>
+  </si>
+  <si>
+    <t>Marathon</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF495060"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
@@ -423,7 +435,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -453,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" ht="15.6">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -464,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="15.6">
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -475,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" ht="15.6">
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -486,52 +498,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" ht="15.6">
       <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.6">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.6">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.6">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.6">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.6">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.6">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="4"/>
       <c r="D14" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{F4129E90-00AD-45DF-8518-3474F35F167D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>